--- a/testdf_final.xlsx
+++ b/testdf_final.xlsx
@@ -530,16 +530,16 @@
         <v>703.9409695767351</v>
       </c>
       <c r="D2" t="n">
-        <v>927.1671217952892</v>
+        <v>932.2017155010354</v>
       </c>
       <c r="E2" t="n">
-        <v>1150.754070505559</v>
+        <v>1143.41330678195</v>
       </c>
       <c r="F2" t="n">
-        <v>703.9409695105414</v>
+        <v>703.940969505364</v>
       </c>
       <c r="G2" t="n">
-        <v>703.9409696455268</v>
+        <v>703.9409696685137</v>
       </c>
       <c r="H2" t="n">
         <v>336.3824876801255</v>

--- a/testdf_final.xlsx
+++ b/testdf_final.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -56,19 +56,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,40 +524,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44408</v>
+        <v>44381</v>
       </c>
       <c r="C2" t="n">
-        <v>703.9409695767351</v>
+        <v>695.9751779659155</v>
       </c>
       <c r="D2" t="n">
-        <v>932.2017155010354</v>
+        <v>421.9468285179482</v>
       </c>
       <c r="E2" t="n">
-        <v>1143.41330678195</v>
+        <v>647.7038520383048</v>
       </c>
       <c r="F2" t="n">
-        <v>703.940969505364</v>
+        <v>695.9751778747167</v>
       </c>
       <c r="G2" t="n">
-        <v>703.9409696685137</v>
+        <v>695.9751780347525</v>
       </c>
       <c r="H2" t="n">
-        <v>336.3824876801255</v>
+        <v>-155.7333778341101</v>
       </c>
       <c r="I2" t="n">
-        <v>336.3824876801255</v>
+        <v>-155.7333778341101</v>
       </c>
       <c r="J2" t="n">
-        <v>336.3824876801255</v>
+        <v>-155.7333778341101</v>
       </c>
       <c r="K2" t="n">
-        <v>336.3824876801255</v>
+        <v>-155.7333778341101</v>
       </c>
       <c r="L2" t="n">
-        <v>336.3824876801255</v>
+        <v>-155.7333778341101</v>
       </c>
       <c r="M2" t="n">
-        <v>336.3824876801255</v>
+        <v>-155.7333778341101</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,10 +569,487 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1040.323457256861</v>
+        <v>540.2418001318053</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>44388</v>
+      </c>
+      <c r="C3" t="n">
+        <v>698.0403831983502</v>
+      </c>
+      <c r="D3" t="n">
+        <v>513.0300394466716</v>
+      </c>
+      <c r="E3" t="n">
+        <v>748.4921605809195</v>
+      </c>
+      <c r="F3" t="n">
+        <v>698.0403829056385</v>
+      </c>
+      <c r="G3" t="n">
+        <v>698.0403834659427</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-65.67529490363245</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-65.67529490363245</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-65.67529490363245</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-65.67529490363245</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-65.67529490363245</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-65.67529490363245</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>632.3650882947178</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>44395</v>
+      </c>
+      <c r="C4" t="n">
+        <v>700.105588430785</v>
+      </c>
+      <c r="D4" t="n">
+        <v>683.3157487796057</v>
+      </c>
+      <c r="E4" t="n">
+        <v>892.0426671812799</v>
+      </c>
+      <c r="F4" t="n">
+        <v>700.1055878724994</v>
+      </c>
+      <c r="G4" t="n">
+        <v>700.1055889578307</v>
+      </c>
+      <c r="H4" t="n">
+        <v>82.94745979380299</v>
+      </c>
+      <c r="I4" t="n">
+        <v>82.94745979380299</v>
+      </c>
+      <c r="J4" t="n">
+        <v>82.94745979380299</v>
+      </c>
+      <c r="K4" t="n">
+        <v>82.94745979380299</v>
+      </c>
+      <c r="L4" t="n">
+        <v>82.94745979380299</v>
+      </c>
+      <c r="M4" t="n">
+        <v>82.94745979380299</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>783.053048224588</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>44402</v>
+      </c>
+      <c r="C5" t="n">
+        <v>702.1707936632197</v>
+      </c>
+      <c r="D5" t="n">
+        <v>827.9521295639863</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1061.146012018548</v>
+      </c>
+      <c r="F5" t="n">
+        <v>702.1707927895143</v>
+      </c>
+      <c r="G5" t="n">
+        <v>702.1707945046884</v>
+      </c>
+      <c r="H5" t="n">
+        <v>240.3593818018295</v>
+      </c>
+      <c r="I5" t="n">
+        <v>240.3593818018295</v>
+      </c>
+      <c r="J5" t="n">
+        <v>240.3593818018295</v>
+      </c>
+      <c r="K5" t="n">
+        <v>240.3593818018295</v>
+      </c>
+      <c r="L5" t="n">
+        <v>240.3593818018295</v>
+      </c>
+      <c r="M5" t="n">
+        <v>240.3593818018295</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>942.5301754650492</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="C6" t="n">
+        <v>704.2359988956543</v>
+      </c>
+      <c r="D6" t="n">
+        <v>933.8293929072228</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1163.36670002597</v>
+      </c>
+      <c r="F6" t="n">
+        <v>704.2359976535694</v>
+      </c>
+      <c r="G6" t="n">
+        <v>704.2360001099456</v>
+      </c>
+      <c r="H6" t="n">
+        <v>347.0269879323832</v>
+      </c>
+      <c r="I6" t="n">
+        <v>347.0269879323832</v>
+      </c>
+      <c r="J6" t="n">
+        <v>347.0269879323832</v>
+      </c>
+      <c r="K6" t="n">
+        <v>347.0269879323832</v>
+      </c>
+      <c r="L6" t="n">
+        <v>347.0269879323832</v>
+      </c>
+      <c r="M6" t="n">
+        <v>347.0269879323832</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1051.262986828038</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>44416</v>
+      </c>
+      <c r="C7" t="n">
+        <v>706.3012041280891</v>
+      </c>
+      <c r="D7" t="n">
+        <v>965.479476789194</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1196.441127546732</v>
+      </c>
+      <c r="F7" t="n">
+        <v>706.3012024482583</v>
+      </c>
+      <c r="G7" t="n">
+        <v>706.3012057388836</v>
+      </c>
+      <c r="H7" t="n">
+        <v>377.0436211460323</v>
+      </c>
+      <c r="I7" t="n">
+        <v>377.0436211460323</v>
+      </c>
+      <c r="J7" t="n">
+        <v>377.0436211460323</v>
+      </c>
+      <c r="K7" t="n">
+        <v>377.0436211460323</v>
+      </c>
+      <c r="L7" t="n">
+        <v>377.0436211460323</v>
+      </c>
+      <c r="M7" t="n">
+        <v>377.0436211460323</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1083.344825274121</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>44423</v>
+      </c>
+      <c r="C8" t="n">
+        <v>708.3664093605238</v>
+      </c>
+      <c r="D8" t="n">
+        <v>933.0787167339626</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1159.203736319341</v>
+      </c>
+      <c r="F8" t="n">
+        <v>708.3664071476358</v>
+      </c>
+      <c r="G8" t="n">
+        <v>708.3664113754444</v>
+      </c>
+      <c r="H8" t="n">
+        <v>342.9768708091839</v>
+      </c>
+      <c r="I8" t="n">
+        <v>342.9768708091839</v>
+      </c>
+      <c r="J8" t="n">
+        <v>342.9768708091839</v>
+      </c>
+      <c r="K8" t="n">
+        <v>342.9768708091839</v>
+      </c>
+      <c r="L8" t="n">
+        <v>342.9768708091839</v>
+      </c>
+      <c r="M8" t="n">
+        <v>342.9768708091839</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1051.343280169708</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>44430</v>
+      </c>
+      <c r="C9" t="n">
+        <v>710.4316145929585</v>
+      </c>
+      <c r="D9" t="n">
+        <v>863.3868951005149</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1086.660223786152</v>
+      </c>
+      <c r="F9" t="n">
+        <v>710.4316118603862</v>
+      </c>
+      <c r="G9" t="n">
+        <v>710.4316170765194</v>
+      </c>
+      <c r="H9" t="n">
+        <v>264.8100394333664</v>
+      </c>
+      <c r="I9" t="n">
+        <v>264.8100394333664</v>
+      </c>
+      <c r="J9" t="n">
+        <v>264.8100394333664</v>
+      </c>
+      <c r="K9" t="n">
+        <v>264.8100394333664</v>
+      </c>
+      <c r="L9" t="n">
+        <v>264.8100394333664</v>
+      </c>
+      <c r="M9" t="n">
+        <v>264.8100394333664</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>975.2416540263248</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>44437</v>
+      </c>
+      <c r="C10" t="n">
+        <v>712.4968198253932</v>
+      </c>
+      <c r="D10" t="n">
+        <v>744.7456466478602</v>
+      </c>
+      <c r="E10" t="n">
+        <v>968.6029353028998</v>
+      </c>
+      <c r="F10" t="n">
+        <v>712.496816562929</v>
+      </c>
+      <c r="G10" t="n">
+        <v>712.4968227957229</v>
+      </c>
+      <c r="H10" t="n">
+        <v>146.5658959607051</v>
+      </c>
+      <c r="I10" t="n">
+        <v>146.5658959607051</v>
+      </c>
+      <c r="J10" t="n">
+        <v>146.5658959607051</v>
+      </c>
+      <c r="K10" t="n">
+        <v>146.5658959607051</v>
+      </c>
+      <c r="L10" t="n">
+        <v>146.5658959607051</v>
+      </c>
+      <c r="M10" t="n">
+        <v>146.5658959607051</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>859.0627157860984</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>44444</v>
+      </c>
+      <c r="C11" t="n">
+        <v>714.562025057828</v>
+      </c>
+      <c r="D11" t="n">
+        <v>592.1117150714443</v>
+      </c>
+      <c r="E11" t="n">
+        <v>815.6346574254367</v>
+      </c>
+      <c r="F11" t="n">
+        <v>714.5620211961696</v>
+      </c>
+      <c r="G11" t="n">
+        <v>714.5620285998358</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-10.45737897078865</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-10.45737897078865</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-10.45737897078865</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-10.45737897078865</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-10.45737897078865</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-10.45737897078865</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>704.1046460870393</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>